--- a/src/main/resources/template/excel/export/GoodsLogisticsReport.xlsx
+++ b/src/main/resources/template/excel/export/GoodsLogisticsReport.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -33,6 +33,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="N2")</t>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>商品名称</t>
   </si>
@@ -147,10 +148,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.distributionSpec}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>库存转换率</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -164,6 +161,18 @@
   </si>
   <si>
     <t>商品条码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱条码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.boxBarCode}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.purchaseSpec}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -217,6 +226,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -594,75 +604,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" style="8" customWidth="1"/>
     <col min="2" max="2" width="24.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="11" style="7" customWidth="1"/>
+    <col min="3" max="4" width="17.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="12" style="8" customWidth="1"/>
+    <col min="14" max="14" width="13.625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="11" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>24</v>
+      <c r="O1" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,37 +686,40 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>25</v>
+      <c r="N2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/GoodsLogisticsReport.xlsx
+++ b/src/main/resources/template/excel/export/GoodsLogisticsReport.xlsx
@@ -36,7 +36,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="N2")</t>
+          <t>jx:area(lastCell="O2")</t>
         </r>
       </text>
     </comment>
@@ -49,7 +49,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="N2")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="O2")</t>
         </r>
       </text>
     </comment>
@@ -607,7 +607,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
